--- a/CoDA/CoDA/Files/OrderFile.xlsx
+++ b/CoDA/CoDA/Files/OrderFile.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maxim\BMSTU\7\WEB\tests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B235B8B5-87C4-4F0B-94E5-6CA85FA10386}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2475D4-42F3-4E5A-8867-A16782B77575}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAE570EB-B1E6-40CB-8146-3CF011777D9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,11 +20,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+  <si>
+    <t>Название компании- прямого дистрибьютора</t>
+  </si>
   <si>
     <t>Дата формирования предв. заявки</t>
   </si>
   <si>
+    <t xml:space="preserve">Препарат                                                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общее количество по заявке      </t>
+  </si>
+  <si>
     <t xml:space="preserve">Остаточный срок годности препарата </t>
   </si>
   <si>
@@ -45,13 +49,28 @@
     <t xml:space="preserve">Город местонахождения Заказчика </t>
   </si>
   <si>
-    <t xml:space="preserve">Препарат                                                                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Общее количество по заявке      </t>
-  </si>
-  <si>
-    <t>Название компании- прямого дистрибьютора</t>
+    <t>Номер аукциона</t>
+  </si>
+  <si>
+    <t>Дата аукциона</t>
+  </si>
+  <si>
+    <t>Euroservice</t>
+  </si>
+  <si>
+    <t>01.09.2019</t>
+  </si>
+  <si>
+    <t>Фейба 500</t>
+  </si>
+  <si>
+    <t>320.0</t>
+  </si>
+  <si>
+    <t>01.09.2021</t>
+  </si>
+  <si>
+    <t>18.09.2019</t>
   </si>
   <si>
     <t>физ. лицо в г. Волгоград</t>
@@ -63,34 +82,28 @@
     <t>Волгоград</t>
   </si>
   <si>
-    <t>Номер аукциона</t>
-  </si>
-  <si>
-    <t>Дата аукциона</t>
-  </si>
-  <si>
-    <t>Фейба 500</t>
-  </si>
-  <si>
-    <t>Euroservice</t>
-  </si>
-  <si>
-    <t>01.09.2019</t>
-  </si>
-  <si>
-    <t>01.09.2021</t>
-  </si>
-  <si>
-    <t>18.09.2019</t>
+    <t>#1341342</t>
   </si>
   <si>
     <t>23.08.2019</t>
   </si>
   <si>
-    <t>#1341342</t>
-  </si>
-  <si>
-    <t>320.0</t>
+    <t>Коагил 4,8</t>
+  </si>
+  <si>
+    <t>Октофактор 500 МЕ</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>10.11.2021</t>
+  </si>
+  <si>
+    <t>02.01.2022</t>
   </si>
 </sst>
 </file>
@@ -103,7 +116,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,7 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -165,9 +177,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
@@ -187,9 +197,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -203,7 +213,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -215,7 +225,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -227,12 +237,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -262,29 +272,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -314,26 +307,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,109 +458,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A848CA10-991E-4D88-BE97-8742BD6EEC19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>